--- a/TestPlan/ProjectSetting_Efficiency.xlsx
+++ b/TestPlan/ProjectSetting_Efficiency.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alder_Python\DS_Platform\Project\Efficiency_Test\TestPlan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
@@ -276,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,6 +553,66 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,66 +624,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -947,147 +942,147 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="32" customWidth="1"/>
-    <col min="2" max="4" width="14.42578125" style="32" customWidth="1"/>
-    <col min="5" max="7" width="9.5703125" style="33" customWidth="1"/>
-    <col min="8" max="9" width="17.5703125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="35.5703125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="27" style="39" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="39" customWidth="1"/>
-    <col min="14" max="14" width="39.28515625" style="34" customWidth="1"/>
-    <col min="15" max="15" width="22.85546875" style="34" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="14.7109375" style="26" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" style="26" customWidth="1"/>
+    <col min="5" max="7" width="9.5703125" style="27" customWidth="1"/>
+    <col min="8" max="9" width="17.5703125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="35.5703125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="27" style="32" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" style="32" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="32" customWidth="1"/>
+    <col min="14" max="14" width="39.28515625" style="28" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" style="28" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="21" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="36" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="23" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="23"/>
-    </row>
-    <row r="2" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22" t="s">
+      <c r="O1" s="36"/>
+    </row>
+    <row r="2" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:15" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="17">
         <v>1</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="31"/>
+      <c r="O4" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1129,10 +1124,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1150,7 +1145,7 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1169,7 +1164,7 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1181,7 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1203,7 +1198,7 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1215,7 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1232,7 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1249,7 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1271,7 +1266,7 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1288,7 +1283,7 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
@@ -1305,7 +1300,7 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
@@ -1322,7 +1317,7 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="39" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1341,7 +1336,7 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1358,7 +1353,7 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
@@ -1375,7 +1370,7 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
@@ -1392,7 +1387,7 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
@@ -1409,7 +1404,7 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1436,7 +1431,7 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="7" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +1456,7 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="7" t="s">
         <v>27</v>
       </c>
@@ -1478,7 +1473,7 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
@@ -1501,7 +1496,7 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="7" t="s">
         <v>32</v>
       </c>
@@ -1524,7 +1519,7 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
@@ -1547,7 +1542,7 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="7" t="s">
         <v>36</v>
       </c>
@@ -1570,7 +1565,7 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
@@ -1589,7 +1584,7 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
@@ -1608,7 +1603,7 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="7" t="s">
         <v>42</v>
       </c>
@@ -1627,7 +1622,7 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="7" t="s">
         <v>44</v>
       </c>
@@ -1646,7 +1641,7 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -1667,7 +1662,7 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="7" t="s">
         <v>48</v>
       </c>
@@ -1686,7 +1681,7 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="7" t="s">
         <v>50</v>
       </c>
@@ -1705,7 +1700,7 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="7" t="s">
         <v>51</v>
       </c>
